--- a/Leçon chimie/LC 3/LC-3 Expériences.xlsx
+++ b/Leçon chimie/LC 3/LC-3 Expériences.xlsx
@@ -203,18 +203,18 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -561,11 +561,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
@@ -584,7 +584,7 @@
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>9.7000000000000003E-3</v>
       </c>
     </row>
@@ -592,7 +592,7 @@
       <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <f>(B4/B5)/B7</f>
         <v>0</v>
       </c>
@@ -615,7 +615,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -625,43 +625,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>0.3</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>600</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <f>B5*B6/B15</f>
         <v>1.8655685231096925E-3</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <f>B7/2</f>
         <v>9.3278426155484623E-4</v>
       </c>
@@ -671,65 +671,65 @@
         <v>15</v>
       </c>
       <c r="E10" s="9"/>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <f>B13/B8</f>
         <v>0.83303398455224831</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>9.5</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <f>(B18*B12*10^-6)/(B16*B17)</f>
         <v>7.7704099013066008E-4</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="6">
         <v>96485.332899999994</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>8.3140000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>101325</v>
       </c>
     </row>
